--- a/PP_Mapping.xlsx
+++ b/PP_Mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T15RSRO\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T15RSRO\git\FASTWebAutomation\inputFiles\Fast Extract Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4A6EFA1-CE9F-4D79-B2B0-B51A91A0C5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2034C8-194E-4D0F-A73F-76D27163ACEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="137">
   <si>
     <t>policyDetail.policySpecification.policyNumber</t>
   </si>
@@ -79,61 +79,364 @@
     <t>PPBulk.BasePolicyPrem</t>
   </si>
   <si>
+    <t>policyDetail.policyPremiumDetail.premiumDueDate</t>
+  </si>
+  <si>
+    <t>PPBulk.BasePolicyPremDate</t>
+  </si>
+  <si>
+    <t>policyDetail.policyPremiumDetail.annualAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.policyPremiumDetail.totalAnnualAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.policyPremiumDetail.semiAnnualAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.policyPremiumDetail.totalSemiAnnualAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.policyPremiumDetail.quaterlyAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.policyPremiumDetail.totalQuaterlyAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.policyPremiumDetail.monthlyAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.policyPremiumDetail.totalMonthlyAmt</t>
+  </si>
+  <si>
+    <t>PPBulk.Annual1</t>
+  </si>
+  <si>
+    <t>PPBulk.Annual2</t>
+  </si>
+  <si>
+    <t>PPBulk.Semi1</t>
+  </si>
+  <si>
+    <t>PPBulk.Monthly1</t>
+  </si>
+  <si>
+    <t>PPBulk.Semi2</t>
+  </si>
+  <si>
+    <t>PPBulk.Quarterly1</t>
+  </si>
+  <si>
+    <t>PPBulk.Quarterly2</t>
+  </si>
+  <si>
+    <t>PPBulk.Monthly2</t>
+  </si>
+  <si>
+    <t>ExcelField</t>
+  </si>
+  <si>
+    <t>ActualValue</t>
+  </si>
+  <si>
+    <t>ExpectedValue</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Non-Smoker</t>
+  </si>
+  <si>
+    <t>NS1_01</t>
+  </si>
+  <si>
+    <t>policyDetail.policySpecification.adCode</t>
+  </si>
+  <si>
+    <t>PPBulk.Product</t>
+  </si>
+  <si>
+    <t>AD123 Level Convertible Term</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Semi-Annual</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Quarterly</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>policyDetail.policyPremiumDetail.stdAgeCnvPd</t>
+  </si>
+  <si>
+    <t>PPBulk.PayPeriod</t>
+  </si>
+  <si>
+    <t>policyDetail.riderSpecifications.policyPurchaseOption.ppoAmt</t>
+  </si>
+  <si>
+    <t>PPBulk.PPOamt</t>
+  </si>
+  <si>
+    <t>policyDetail.riderSpecifications.accidentalDeathBenefit.adbFaceAmt</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBamt</t>
+  </si>
+  <si>
+    <t>policyDetail.riderSpecifications.accidentalDeathBenefit.premiumAmt</t>
+  </si>
+  <si>
+    <t>PPBulk.ADB_prem1</t>
+  </si>
+  <si>
+    <t>PPBulk.WP_prem1</t>
+  </si>
+  <si>
+    <t>policyDetail.riderSpecifications.disabilityWaiver.premiumAmt</t>
+  </si>
+  <si>
+    <t>PPBulk.PPO_prem1</t>
+  </si>
+  <si>
     <t>policyDetail.premiumScheduleDetail.premuimSchedule[0].basePremiumAmt</t>
   </si>
   <si>
-    <t>policyDetail.policyPremiumDetail.premiumDueDate</t>
-  </si>
-  <si>
-    <t>PPBulk.BasePolicyPremDate</t>
-  </si>
-  <si>
-    <t>policyDetail.policyPremiumDetail.annualAmt</t>
-  </si>
-  <si>
-    <t>policyDetail.policyPremiumDetail.totalAnnualAmt</t>
-  </si>
-  <si>
-    <t>policyDetail.policyPremiumDetail.semiAnnualAmt</t>
-  </si>
-  <si>
-    <t>policyDetail.policyPremiumDetail.totalSemiAnnualAmt</t>
-  </si>
-  <si>
-    <t>policyDetail.policyPremiumDetail.quaterlyAmt</t>
-  </si>
-  <si>
-    <t>policyDetail.policyPremiumDetail.totalQuaterlyAmt</t>
-  </si>
-  <si>
-    <t>policyDetail.policyPremiumDetail.monthlyAmt</t>
-  </si>
-  <si>
-    <t>policyDetail.policyPremiumDetail.totalMonthlyAmt</t>
-  </si>
-  <si>
-    <t>PPBulk.Annual1</t>
-  </si>
-  <si>
-    <t>PPBulk.Annual2</t>
-  </si>
-  <si>
-    <t>PPBulk.Semi1</t>
-  </si>
-  <si>
-    <t>PPBulk.Monthly1</t>
-  </si>
-  <si>
-    <t>PPBulk.Semi2</t>
-  </si>
-  <si>
-    <t>PPBulk.Quarterly1</t>
-  </si>
-  <si>
-    <t>PPBulk.Quarterly2</t>
-  </si>
-  <si>
-    <t>PPBulk.Monthly2</t>
+    <t>policyDetail.riderSpecifications.policyPurchaseOption.premiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.policyPremiumDetail.basePremium</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_1</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_2</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_3</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_4</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_5</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_6</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_7</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_8</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_9</t>
+  </si>
+  <si>
+    <t>PPBulk.SchedBasePrem_10</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[1].basePremiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[2].basePremiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[3].basePremiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[4].basePremiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[5].basePremiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[6].basePremiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[7].basePremiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[8].basePremiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[9].basePremiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[0].maxBasePremiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[1].maxBasePremiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[2].maxBasePremiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[3].maxBasePremiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[4].maxBasePremiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[5].maxBasePremiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[6].maxBasePremiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[7].maxBasePremiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[8].maxBasePremiumAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.premuimSchedule[9].maxBasePremiumAmt</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_1</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_2</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_3</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_4</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_5</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_6</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_7</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_8</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_9</t>
+  </si>
+  <si>
+    <t>PPBulk.MaxBasePrem_10</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_1</t>
+  </si>
+  <si>
+    <t>policyDetail.riderSpecifications.accidentalDeathBenefit.yearlyScheduledData[0].riderPremAmt</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_2</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_3</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_4</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_5</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_6</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_7</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_8</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_9</t>
+  </si>
+  <si>
+    <t>PPBulk.ADBriderprem_10</t>
+  </si>
+  <si>
+    <t>policyDetail.riderSpecifications.accidentalDeathBenefit.yearlyScheduledData[1].riderPremAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.riderSpecifications.accidentalDeathBenefit.yearlyScheduledData[2].riderPremAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.riderSpecifications.accidentalDeathBenefit.yearlyScheduledData[3].riderPremAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.riderSpecifications.accidentalDeathBenefit.yearlyScheduledData[4].riderPremAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.riderSpecifications.accidentalDeathBenefit.yearlyScheduledData[5].riderPremAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.riderSpecifications.accidentalDeathBenefit.yearlyScheduledData[6].riderPremAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.riderSpecifications.accidentalDeathBenefit.yearlyScheduledData[7].riderPremAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.riderSpecifications.accidentalDeathBenefit.yearlyScheduledData[8].riderPremAmt</t>
+  </si>
+  <si>
+    <t>policyDetail.riderSpecifications.accidentalDeathBenefit.yearlyScheduledData[9].riderPremAmt</t>
+  </si>
+  <si>
+    <t>SP_29</t>
+  </si>
+  <si>
+    <t>P_27</t>
+  </si>
+  <si>
+    <t>PII_46</t>
+  </si>
+  <si>
+    <t>SS_28</t>
+  </si>
+  <si>
+    <t>S1_14</t>
+  </si>
+  <si>
+    <t>Select Preferred</t>
+  </si>
+  <si>
+    <t>Preferred</t>
+  </si>
+  <si>
+    <t>Preferred ||</t>
+  </si>
+  <si>
+    <t>Select Standard</t>
+  </si>
+  <si>
+    <t>Standard</t>
   </si>
 </sst>
 </file>
@@ -457,16 +760,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="46.7265625" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
+    <col min="1" max="1" width="86" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="19.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -536,7 +839,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -544,74 +847,370 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -622,20 +1221,175 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CF8B70-D07D-4890-A8B9-33DCBA5CECDE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="25.26953125" customWidth="1"/>
+    <col min="2" max="2" width="34" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PP_Mapping.xlsx
+++ b/PP_Mapping.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T15RSRO\git\FASTWebAutomation\inputFiles\Fast Extract Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2034C8-194E-4D0F-A73F-76D27163ACEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E837209B-7D0E-4E3A-9740-9D437C52842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ValueMapping" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="147">
   <si>
     <t>policyDetail.policySpecification.policyNumber</t>
   </si>
@@ -437,6 +438,36 @@
   </si>
   <si>
     <t>Standard</t>
+  </si>
+  <si>
+    <t>PPBulk.ConversionAttainedAge</t>
+  </si>
+  <si>
+    <t>PPBulk.ConversionOriginalAge</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.conversionDetail.originalAgeDt</t>
+  </si>
+  <si>
+    <t>policyDetail.premiumScheduleDetail.conversionDetail.attainedAgeDt</t>
+  </si>
+  <si>
+    <t>Agent1.Agent Contract</t>
+  </si>
+  <si>
+    <t>policyDetail.agentInfo[0].contractType</t>
+  </si>
+  <si>
+    <t>policyDetail.agentInfo[0].marketerId</t>
+  </si>
+  <si>
+    <t>Agent1.Agent  Number</t>
+  </si>
+  <si>
+    <t>policyDetail.agentInfo[0].percentage</t>
+  </si>
+  <si>
+    <t>Agent1.Agent Share</t>
   </si>
 </sst>
 </file>
@@ -760,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1213,6 +1244,46 @@
         <v>117</v>
       </c>
     </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>145</v>
+      </c>
+      <c r="B60" t="s">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1221,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CF8B70-D07D-4890-A8B9-33DCBA5CECDE}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1344,52 +1415,78 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>136</v>
-      </c>
-      <c r="C14" t="s">
-        <v>131</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53710B0D-92EF-4C6D-A1BE-0E8675F4C31B}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PP_Mapping.xlsx
+++ b/PP_Mapping.xlsx
@@ -8,26 +8,59 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\T15RSRO\git\FASTWebAutomation\inputFiles\Fast Extract Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E837209B-7D0E-4E3A-9740-9D437C52842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400DE7BE-3950-4073-AF96-2C05EF3BF827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ValueMapping" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="197">
   <si>
     <t>policyDetail.policySpecification.policyNumber</t>
   </si>
@@ -468,6 +501,156 @@
   </si>
   <si>
     <t>Agent1.Agent Share</t>
+  </si>
+  <si>
+    <t>AK-01</t>
+  </si>
+  <si>
+    <t>CA-04</t>
+  </si>
+  <si>
+    <t>FL-09</t>
+  </si>
+  <si>
+    <t>DC-08</t>
+  </si>
+  <si>
+    <t>NH-28</t>
+  </si>
+  <si>
+    <t>WA-46</t>
+  </si>
+  <si>
+    <t>IL-12</t>
+  </si>
+  <si>
+    <t>MS-23</t>
+  </si>
+  <si>
+    <t>MO-24</t>
+  </si>
+  <si>
+    <t>KY-16</t>
+  </si>
+  <si>
+    <t>CT-06</t>
+  </si>
+  <si>
+    <t>DE-07</t>
+  </si>
+  <si>
+    <t>ME-18</t>
+  </si>
+  <si>
+    <t>NJ-29</t>
+  </si>
+  <si>
+    <t>AZ-02</t>
+  </si>
+  <si>
+    <t>CO-05</t>
+  </si>
+  <si>
+    <t>HI-87</t>
+  </si>
+  <si>
+    <t>NY-31</t>
+  </si>
+  <si>
+    <t>NV-27</t>
+  </si>
+  <si>
+    <t>TX-42</t>
+  </si>
+  <si>
+    <t>MT-25</t>
+  </si>
+  <si>
+    <t>UT-43</t>
+  </si>
+  <si>
+    <t>NE-26</t>
+  </si>
+  <si>
+    <t>PA-37</t>
+  </si>
+  <si>
+    <t>RI-38</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RI</t>
   </si>
 </sst>
 </file>
@@ -497,7 +680,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -505,12 +688,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1292,10 +1496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6CF8B70-D07D-4890-A8B9-33DCBA5CECDE}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1395,24 +1599,279 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9">
-        <v>123</v>
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>132</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C25" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B34" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -1422,68 +1881,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53710B0D-92EF-4C6D-A1BE-0E8675F4C31B}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3E12AD-075C-4B12-B04E-5C1DB69469A0}">
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" t="s">
-        <v>131</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="str" cm="1">
+        <f t="array" ref="B1:B25">LEFT(A$1:A$25,2)</f>
+        <v>AK</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="str">
+        <v>CA</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="str">
+        <v>FL</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="str">
+        <v>DC</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="str">
+        <v>NH</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B6" t="str">
+        <v>WA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="str">
+        <v>IL</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" t="str">
+        <v>MS</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B9" t="str">
+        <v>MO</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" t="str">
+        <v>KY</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" t="str">
+        <v>CT</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" t="str">
+        <v>DE</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B13" t="str">
+        <v>ME</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B14" t="str">
+        <v>NJ</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B15" t="str">
+        <v>AZ</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" t="str">
+        <v>CO</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B17" t="str">
+        <v>HI</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" t="str">
+        <v>NY</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B19" t="str">
+        <v>NV</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" t="str">
+        <v>TX</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" t="str">
+        <v>MT</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" t="str">
+        <v>UT</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23" t="str">
+        <v>NE</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" t="str">
+        <v>PA</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" t="str">
+        <v>RI</v>
       </c>
     </row>
   </sheetData>
